--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U3I3I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7AC0DD-F3B1-4C93-BA61-6EF804CF94FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C2C4C-CFD0-4ACC-BE5C-DD80B227BA95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1743,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2117,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2152,8 +2152,8 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>14</v>
+      <c r="B11" s="2">
+        <v>15</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2166,8 +2166,8 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>15</v>
+      <c r="B12" s="2">
+        <v>16</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2181,7 +2181,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>11</v>
